--- a/Documentation/Pickups/Pickup Tables.xlsx
+++ b/Documentation/Pickups/Pickup Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14340" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14020" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Enemies" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
   <si>
     <t>Imp</t>
   </si>
@@ -234,6 +234,51 @@
   </si>
   <si>
     <t>Not Implemented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location </t>
+  </si>
+  <si>
+    <t>Collectable ID</t>
+  </si>
+  <si>
+    <t>Note 1</t>
+  </si>
+  <si>
+    <t>Note 2</t>
+  </si>
+  <si>
+    <t>Note 3</t>
+  </si>
+  <si>
+    <t>Note 4</t>
+  </si>
+  <si>
+    <t>Note 5</t>
+  </si>
+  <si>
+    <t>Note 6</t>
+  </si>
+  <si>
+    <t>Note 7</t>
+  </si>
+  <si>
+    <t>Note 8</t>
+  </si>
+  <si>
+    <t>Note 9</t>
+  </si>
+  <si>
+    <t>Note 10</t>
+  </si>
+  <si>
+    <t>Note 11</t>
+  </si>
+  <si>
+    <t>Note 12</t>
+  </si>
+  <si>
+    <t>Note 13</t>
   </si>
 </sst>
 </file>
@@ -1484,12 +1529,145 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B4:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4">
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="60" customHeight="1">
+      <c r="B5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="60" customHeight="1">
+      <c r="B6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="60" customHeight="1">
+      <c r="B7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="60" customHeight="1">
+      <c r="B8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="60" customHeight="1">
+      <c r="B9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="60" customHeight="1">
+      <c r="B10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="60" customHeight="1">
+      <c r="B11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="60" customHeight="1">
+      <c r="B12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="60" customHeight="1">
+      <c r="B13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="60" customHeight="1">
+      <c r="B14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="60" customHeight="1">
+      <c r="B15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="60" customHeight="1">
+      <c r="B16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="60" customHeight="1">
+      <c r="B17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
